--- a/result.xlsx
+++ b/result.xlsx
@@ -436,42 +436,42 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>生产物品</t>
+          <t>生产物品/Production</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>倍数</t>
+          <t>倍数/times</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>类型</t>
+          <t>生产类型/Production type</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>预计速度(个每分钟)</t>
+          <t>预计速度(个每分钟)/Estimated speed(one per minute)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>需要速度(个每分钟)</t>
+          <t>需要速度(个每分钟)/Demand speed(one per minute)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>最小分拣速度等级</t>
+          <t>最小分拣速度等级/Minimum sorting speed level</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>传送速度等级</t>
+          <t>Transmission speed level</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>最适传送长度</t>
+          <t>最适传送长度/Optimal transmission length</t>
         </is>
       </c>
     </row>

--- a/result.xlsx
+++ b/result.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>需要速度(个每分钟)/Demand speed(one per minute)</t>
+          <t>需要速度(个每分钟)/Demanded speed(one per minute)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>无/None</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>无/None</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>无/None</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>无/None</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>无/None</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>无/None</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>无/None</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>无/None</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>无/None</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>无/None</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>无/None</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>无/None</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>无/None</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>无/None</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>无/None</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>无/None</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>无/None</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>无/None</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>无/None</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>无/None</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>无/None</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>无/None</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>无/None</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>无/None</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>无/None</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>无/None</t>
         </is>
       </c>
     </row>

--- a/result.xlsx
+++ b/result.xlsx
@@ -436,42 +436,42 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>生产物品/Production</t>
+          <t>生产物品 / Production</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>倍数/times</t>
+          <t>倍数 / times</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>生产类型/Production type</t>
+          <t>生产类型 / Production type</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>预计速度(个每分钟)/Estimated speed(one per minute)</t>
+          <t>预计速度(个每分钟) / Estimated speed(one per minute)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>需要速度(个每分钟)/Demanded speed(one per minute)</t>
+          <t>需要速度(个每分钟) / Demanded speed(one per minute)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>最小分拣速度等级/Minimum sorting speed level</t>
+          <t>最小分拣速度等级 / Minimum sorting speed level</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Transmission speed level</t>
+          <t>传送速度等级 / Transmission speed level</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>最适传送长度/Optimal transmission length</t>
+          <t>最适传送长度 / Optimal transmission length</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>无/None</t>
+          <t>无 / None</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>无/None</t>
+          <t>无 / None</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>无/None</t>
+          <t>无 / None</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>无/None</t>
+          <t>无 / None</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>无/None</t>
+          <t>无 / None</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>无/None</t>
+          <t>无 / None</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>无/None</t>
+          <t>无 / None</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>无/None</t>
+          <t>无 / None</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>无/None</t>
+          <t>无 / None</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>无/None</t>
+          <t>无 / None</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>无/None</t>
+          <t>无 / None</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>无/None</t>
+          <t>无 / None</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>无/None</t>
+          <t>无 / None</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>无/None</t>
+          <t>无 / None</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>无/None</t>
+          <t>无 / None</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>无/None</t>
+          <t>无 / None</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>无/None</t>
+          <t>无 / None</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>无/None</t>
+          <t>无 / None</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>无/None</t>
+          <t>无 / None</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>无/None</t>
+          <t>无 / None</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>无/None</t>
+          <t>无 / None</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>无/None</t>
+          <t>无 / None</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>无/None</t>
+          <t>无 / None</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>无/None</t>
+          <t>无 / None</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>无/None</t>
+          <t>无 / None</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>无/None</t>
+          <t>无 / None</t>
         </is>
       </c>
     </row>

--- a/result.xlsx
+++ b/result.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1.0667</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -493,7 +493,7 @@
         <v>22.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1</v>
+        <v>24</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2.1333</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
         <v>22.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2</v>
+        <v>48</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -565,7 +565,7 @@
         <v>60</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6000000000000001</v>
+        <v>144</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.889</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -601,7 +601,7 @@
         <v>270</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1.0667</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2</v>
+        <v>48</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1.0666</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>90</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4</v>
+        <v>96</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         <v>40</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4</v>
+        <v>96</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2</v>
+        <v>48</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.1778</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>270</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2</v>
+        <v>48</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
